--- a/console/Networking/iaas网络与容器中文提取/sshExcel/components/delSsh.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/sshExcel/components/delSsh.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -173,42 +168,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Delete SSH Key Pair'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When the key pair is deleted, you are still allowed to log in the Virtual Machines associated with the key pair via the locally-saved private key.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Confirm to delete SSH Key Pair</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Cancel</t>
     </r>
   </si>
@@ -225,23 +184,27 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'SSH deletion task successfully submitted. Please refresh the page later'</t>
-    </r>
+    <t>Confirm to delete the SSH Key Pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH Key Pair deletion task successfully submitted. Please refresh the page later'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete SSH Key Pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the key pair is deleted, you can still use the private key saved locally to log in the VMs which are associated with the public key.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +214,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -277,9 +254,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,18 +607,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="44.77734375" style="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="44.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,21 +627,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -664,8 +653,9 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -673,10 +663,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -684,23 +674,27 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
   </ignoredErrors>
